--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Anual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Anual.xlsx
@@ -1201,13 +1201,13 @@
         <v>108.8</v>
       </c>
       <c r="L19">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="M19">
         <v>129.5</v>
       </c>
       <c r="R19">
-        <v>258822</v>
+        <v>258835</v>
       </c>
     </row>
   </sheetData>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Anual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Anual.xlsx
@@ -1201,7 +1201,7 @@
         <v>108.8</v>
       </c>
       <c r="L19">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="M19">
         <v>129.5</v>
